--- a/DOM_Banner/output/dept_banner/Jose Marquez_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,15 +532,569 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4297347256</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Slot-Die Coated Triple-Halide Perovskites for Efficient and Scalable Perovskite/Silicon Tandem Solar Cells</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5007299136", "https://openalex.org/A5026326456", "https://openalex.org/A5006218008", "https://openalex.org/A5084365184", "https://openalex.org/A5080256392", "https://openalex.org/A5036578721", "https://openalex.org/A5040082438", "https://openalex.org/A5000553567", "https://openalex.org/A5057785360", "https://openalex.org/A5021558940", "https://openalex.org/A5082537643", "https://openalex.org/A5034813258", "https://openalex.org/A5014121427", "https://openalex.org/A5011004401", 
+"https://openalex.org/A5051607017", "https://openalex.org/A5080790011", "https://openalex.org/A5015983406", "https://openalex.org/A5053013321"), au_display_name = c("Ke Xu", "Amran Al‐Ashouri", "Zih-Wei Peng", "Eike Köhnen", "Hannes Hempel", "Fatima Akhundova", "J.A. Marquez", "Philipp Tockhorn", "Oleksandra Shargaieva", "Florian Ruske", "Jiahuan Zhang", "Janardan Dagar", "Bernd Stannowski", "Thomas Unold", "Daniel Abou‐Ras", "Eva Unger", "Lars Korte", "Steve Albrecht"), au_orcid = c("https://orcid.org/0000-0002-1113-1095", 
+"https://orcid.org/0000-0001-5512-8034", NA, "https://orcid.org/0000-0002-3637-4907", "https://orcid.org/0000-0001-9689-9644", NA, "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0003-1361-2252", "https://orcid.org/0000-0003-4920-3282", "https://orcid.org/0000-0002-6363-4591", "https://orcid.org/0000-0003-3030-0402", "https://orcid.org/0000-0003-4102-3818", "https://orcid.org/0000-0003-0130-3954", "https://orcid.org/0000-0002-5750-0693", "https://orcid.org/0000-0003-3063-922X", "https://orcid.org/0000-0002-3343-867X", 
+"https://orcid.org/0000-0002-9207-9048", "https://orcid.org/0000-0001-9962-9535"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", 
+"Competence Centre Photovoltaics (PVcomB), Helmholtz-Zentrum Berlin, Schwarzschildstraße 3, 12489 Berlin, Germany", "Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany", "Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany", 
+"Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany", "Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Novel Materials and Interfaces for Photovoltaic Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", 
+"Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Competence Centre Photovoltaics (PVcomB), Helmholtz-Zentrum Berlin, Schwarzschildstraße 3, 12489 Berlin, Germany", "Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany", 
+"Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany", "Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany", "Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Faculty of Electrical Engineering and Computer Science, Technical University Berlin, 10587 Berlin, Germany"
+), institution_id = c("https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503"), institution_display_name = c("Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie"), institution_ror = c("https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", 
+"https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28"), institution_country_code = c("DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE"), institution_type = c("facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", 
+"facility", "facility", "facility", "facility", "facility", "facility"), institution_lineage = c("https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503"))</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Wide bandgap halide perovskite materials show promising potential to pair with silicon bottom cells. To date, most efficient wide bandgap perovskites layers are fabricated by spin-coating, which is difficult to scale up. Here, we report on slot-die coating for an efficient, 1.68 eV wide bandgap triple-halide (3halide) perovskite absorber, (Cs0.22FA0.78)Pb(I0.85Br0.15)3 + 5 mol % MAPbCl3. A suitable solvent system is designed specifically for the slot-die coating technique. We demonstrate that our fabrication route is suitable for tandem solar cells without phase segregation. The slot-die coated wet halide perovskite is dried by a "nitrogen (N2)-knife" with high reproducibility and avoiding antisolvents. We explore varying annealing conditions and identify parameters allowing crystallization of the perovskite film into large grains reducing charge collection losses and enabling higher current density. At 150 °C, an optimized trade-off between crystallization and the PbI2 aggregates on the film's top surface is found. Thus, we improve the cell stability and performance of both single-junction cells and tandems. Combining the 3halide top cells with a 120 μm thin saw damage etched commercial Czochralski industrial wafer, a 2-terminal monolithic tandem solar cell with a PCE of 25.2% on a 1 cm2 active area is demonstrated with fully scalable processes.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ACS Energy Letters</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2764414965</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>American Chemical Society</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2380-8195</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsenergylett.2c01506</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsenergylett.2c01506</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>c(funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "03SF0631", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "03XP0091", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "03SF0540", funder = "https://openalex.org/F4320322480", funder_display_name = "Universität Potsdam", 
+funder = "https://openalex.org/F4320323803", funder_display_name = "Bundesministerium für Wirtschaft und Energie", award_id = "03EE1086C", funder = "https://openalex.org/F4320325698", funder_display_name = "Helmholtz Association", funder = "https://openalex.org/F4320333421", funder_display_name = "Helmholtz-Zentrum Berlin für Materialien und Energie")</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4297347256</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4297347256", doi = "https://doi.org/10.1021/acsenergylett.2c01506", pmid = "https://pubmed.ncbi.nlm.nih.gov/36277135")</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsenergylett.2c01506</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1462791135", "https://openalex.org/W1991210869", "https://openalex.org/W2029637177", "https://openalex.org/W2075511306", "https://openalex.org/W2080086353", "https://openalex.org/W2184746371", "https://openalex.org/W2542473083", "https://openalex.org/W2550552823", "https://openalex.org/W2566563253", "https://openalex.org/W2588813628", "https://openalex.org/W2766516927", "https://openalex.org/W2767139097", "https://openalex.org/W2800294230", "https://openalex.org/W2883708814", 
+"https://openalex.org/W2887829555", "https://openalex.org/W2888048443", "https://openalex.org/W2892717697", "https://openalex.org/W2898568184", "https://openalex.org/W2910961080", "https://openalex.org/W2915850808", "https://openalex.org/W2944463659", "https://openalex.org/W2952213661", "https://openalex.org/W2978073789", "https://openalex.org/W2982965794", "https://openalex.org/W3000914311", "https://openalex.org/W3003131159", "https://openalex.org/W3009827509", "https://openalex.org/W3010429318", 
+"https://openalex.org/W3011785384", "https://openalex.org/W3025411882", "https://openalex.org/W3033123351", "https://openalex.org/W3033959564", "https://openalex.org/W3042437306", "https://openalex.org/W3048659995", "https://openalex.org/W3112882062", "https://openalex.org/W3113214473", "https://openalex.org/W3118743927", "https://openalex.org/W3132676645", "https://openalex.org/W3139157896", "https://openalex.org/W3159763600", "https://openalex.org/W3207095334", "https://openalex.org/W3209034128", 
+"https://openalex.org/W4200264712", "https://openalex.org/W4221051803")</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2317259409", "https://openalex.org/W3119576694", "https://openalex.org/W2614011276", "https://openalex.org/W4296457555", "https://openalex.org/W4210849997", "https://openalex.org/W3084866482", "https://openalex.org/W4318257494", "https://openalex.org/W3175464458", "https://openalex.org/W2082438448", "https://openalex.org/W3086454935")</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4229370660</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Association of masking policies with mask adherence and distancing during the SARS-COV-2 pandemic</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5037666757", "https://openalex.org/A5040082438", "https://openalex.org/A5008910217", "https://openalex.org/A5025950081", "https://openalex.org/A5082741029", "https://openalex.org/A5024085266", "https://openalex.org/A5044261438", "https://openalex.org/A5076481921", "https://openalex.org/A5032833924", "https://openalex.org/A5012195279", "https://openalex.org/A5078020560", "https://openalex.org/A5082948573", "https://openalex.org/A5072612385", "https://openalex.org/A5013746851", 
+"https://openalex.org/A5026426185", "https://openalex.org/A5014388752", "https://openalex.org/A5046016361", "https://openalex.org/A5080544576", "https://openalex.org/A5053828311", "https://openalex.org/A5017232437", "https://openalex.org/A5072665563", "https://openalex.org/A5048062139", "https://openalex.org/A5029338376", "https://openalex.org/A5086116868", "https://openalex.org/A5053222622"), au_display_name = c("Eric J. Puttock", "J.A. Marquez", "Deborah R. YoungPhD", "Abraelle M. Shirley", "Bing Han", 
+"Thomas L. McKenzie", "Nicole J. Smith", "Kathleen Manuel", "Deanna M. Hoelscher", "Suzanne E. Spear", "Monica S. Ruiz", "Charlotte Smith", "Kimberly Krytus", "Irene Martínez", "Hosung So", "Marian Levy", "Vikki G. Nolan", "Erika J. Bagley", "Amber Mehmood", "Joy Goens Thomas", "Lily Apedaile", "Shelby E. Ison", "Daheia J. Barr-Anderson", "John G. Heller", "Deborah A. Cohen"), au_orcid = c("https://orcid.org/0000-0003-3963-314X", "https://orcid.org/0000-0002-8173-2566", NA, NA, "https://orcid.org/0000-0001-7600-6693", 
+"https://orcid.org/0000-0003-1905-3578", NA, "https://orcid.org/0000-0002-3728-4559", "https://orcid.org/0000-0002-0910-5031", "https://orcid.org/0000-0002-4633-9216", "https://orcid.org/0000-0002-7384-4090", "https://orcid.org/0000-0002-2077-7197", NA, "https://orcid.org/0000-0002-5693-0595", NA, "https://orcid.org/0000-0003-1908-3435", "https://orcid.org/0000-0002-9753-0870", "https://orcid.org/0000-0002-0342-6168", "https://orcid.org/0000-0002-8417-1282", NA, "https://orcid.org/0000-0001-7827-5715", 
+"https://orcid.org/0000-0002-3428-3622", "https://orcid.org/0000-0001-5896-4388", "https://orcid.org/0000-0002-5811-521X", "https://orcid.org/0000-0002-1506-3739"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", 
+"", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
+NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Quantification of the impact of local masking policies may help guide future policy interventions to reduce SARS-COV-2 disease transmission. This study's objective was to identify factors associated with adherence to masking and social distancing guidelines.Faculty from 16 U.S. colleges and universities trained 231 students in systematic direct observation. They assessed correct mask use and distancing in public settings in 126 US cities from September 2020 through August 2021.Of 109,999 individuals observed in 126 US cities, 48% wore masks correctly with highest adherence among females, teens and seniors and lowest among non-Hispanic whites, those in vigorous physical activity, and in larger groups (P &lt; .0001). Having a local mask mandate increased the odds of wearing a mask by nearly 3-fold (OR = 2.99, P = .0003) compared to no recommendation. People observed in non-commercial areas were least likely to wear masks. Correct mask use was greatest in December 2020 and remained high until June 2021 (P &lt; .0001). Masking policy requirements were not associated with distancing.The strong association between mask mandates and correct mask use suggests that public policy has a powerful influence on individual behavior.Mask mandates should be considered in future pandemics to increase adherence.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>American Journal of Infection Control</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S154451576</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0196-6553</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ajic.2022.04.010</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9080722</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>c(funder = "https://openalex.org/F4320337338", funder_display_name = "National Heart, Lung, and Blood Institute", award_id = "R01HL145145")</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4229370660</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4229370660", doi = "https://doi.org/10.1016/j.ajic.2022.04.010", pmid = "https://pubmed.ncbi.nlm.nih.gov/35545151")</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ajic.2022.04.010</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W857889417", "https://openalex.org/W2167416308", "https://openalex.org/W3037536037", "https://openalex.org/W3038656035", "https://openalex.org/W3092832410", "https://openalex.org/W3122130252", "https://openalex.org/W3168818086")</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3029093665", "https://openalex.org/W3124145191", "https://openalex.org/W3022812738", "https://openalex.org/W3206267557", "https://openalex.org/W3127403361", "https://openalex.org/W3034165649", "https://openalex.org/W3135225779", "https://openalex.org/W3194568786", "https://openalex.org/W3195503335", "https://openalex.org/W3123375363")</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4280494983</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Effects of material properties of band‐gap‐graded Cu(In,Ga)Se&lt;sub&gt;2&lt;/sub&gt; thin films on the onset of the quantum efficiency spectra of corresponding solar cells</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5042325616", "https://openalex.org/A5089701213", "https://openalex.org/A5025911248", "https://openalex.org/A5056836025", "https://openalex.org/A5040082438", "https://openalex.org/A5080256392", "https://openalex.org/A5050245642", "https://openalex.org/A5056051750", "https://openalex.org/A5024552988", "https://openalex.org/A5007865268", "https://openalex.org/A5083949654", "https://openalex.org/A5012454512", "https://openalex.org/A5001226280", "https://openalex.org/A5043712162", 
+"https://openalex.org/A5051607017"), au_display_name = c("Sinju Thomas", "Tobias Bertram", "Christian A. Kaufmann", "Tim Kodalle", "J.A. Marquez", "Hannes Hempel", "Léo Choubrac", "Wolfram Witte", "Dimitrios Hariskos", "Roland Mainz", "Romain Carron", "Jan Keller", "Pablo Reyes‐Figueroa", "R. Klenk", "Daniel Abou‐Ras"), au_orcid = c("https://orcid.org/0000-0003-3943-8600", "https://orcid.org/0000-0002-4060-7523", "https://orcid.org/0000-0001-9168-2032", "https://orcid.org/0000-0002-8792-9669", 
+"https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0001-9689-9644", "https://orcid.org/0000-0003-3236-6376", "https://orcid.org/0000-0002-9429-506X", "https://orcid.org/0000-0003-4867-1578", "https://orcid.org/0000-0003-4793-9763", "https://orcid.org/0000-0001-8281-4881", "https://orcid.org/0000-0002-3461-6036", "https://orcid.org/0000-0001-9262-1645", "https://orcid.org/0000-0003-2045-4301", "https://orcid.org/0000-0003-3063-922X"), author_position = c("first", "middle", "middle", 
+"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany", "Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany", "Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany", "Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany", "Zentrum für Sonnenenergie‐ und Wasserstoff‐Forschung Baden‐Württemberg (ZSW)  Stuttgart Germany", "Zentrum für Sonnenenergie‐ und Wasserstoff‐Forschung Baden‐Württemberg (ZSW)  Stuttgart Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany", 
+"Empa ‐ Swiss Federal Laboratories for Materials Science and Technology  Dübendorf Switzerland", "The Angström Laboratory Solar Cell Technology University of Uppsala  Uppsala Sweden", "Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany", "Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany"
+), institution_id = c("https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I4210109952", "https://openalex.org/I4210109952", "https://openalex.org/I2800795503", "https://openalex.org/I71824836", "https://openalex.org/I123387679", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503"), institution_display_name = c("Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Zentrum für Sonnenenergie- und Wasserstoff-Forschung Baden-Württemberg", 
+"Zentrum für Sonnenenergie- und Wasserstoff-Forschung Baden-Württemberg", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Swiss Federal Laboratories for Materials Science and Technology", "Uppsala University", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie"), institution_ror = c("https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", 
+"https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/014x8q810", "https://ror.org/014x8q810", "https://ror.org/02aj13c28", "https://ror.org/02x681a42", "https://ror.org/048a87296", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28"), institution_country_code = c("DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "CH", "SE", "DE", "DE", "DE"), institution_type = c("facility", 
+"facility", "facility", "facility", "facility", "facility", "facility", "nonprofit", "nonprofit", "facility", "facility", "education", "facility", "facility", "facility"), institution_lineage = c("https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I4210109952", "https://openalex.org/I4210109952", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I2799323385, https://openalex.org/I71824836", "https://openalex.org/I123387679", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503"))</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Abstract Polycrystalline Cu(In,Ga)Se 2 (CIGSe) thin‐film solar cells exhibit gradual onset in their external quantum efficiency ( EQE ) spectra whose shape can be affected by various CIGSe material properties. Apart from influences on the charge‐carrier collection, a broadening of the EQE onset leads to enhanced radiative losses in open‐circuit voltage ( V oc ). In the present work, Gaussian broadening of parameters describing the EQE onset of thin‐film solar cells, represented by the standard deviation, 𝜎 total , was evaluated to study the impacts of the effective band‐gap energy, the electron diffusion length, and the Ga/In gradient in the CIGSe absorber. It is shown that 𝜎 total can be disentangled into contributions of these material properties, in addition to a residual component 𝜎 residual . Effectively, 𝜎 total depends only on a contribution related to the Ga/In gradient as well as on 𝜎 residual . The present work highlights the connection of this compositional gradient, the microstructure in the polycrystalline CIGSe absorber, and the luminescence emission with the residual component 𝜎 residual . It is demonstrated that a flat band‐gap with no compositional gradient in the bulk of the CIGSe absorber is essential to obtain the lowest 𝜎 total values and thus result in lower recombination losses and gains in V oc .</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Progress in Photovoltaics: Research and Applications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S148178125</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1062-7995</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pip.3572</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/pdfdirect/10.1002/pip.3572</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>https://onlinelibrary.wiley.com/doi/pdfdirect/10.1002/pip.3572</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4280494983</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4280494983", doi = "https://doi.org/10.1002/pip.3572")</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/pip.3572</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W585879102", "https://openalex.org/W1612240131", "https://openalex.org/W1956317822", "https://openalex.org/W1994408743", "https://openalex.org/W2004713642", "https://openalex.org/W2023572067", "https://openalex.org/W2028808594", "https://openalex.org/W2037693323", "https://openalex.org/W2039152972", "https://openalex.org/W2044697308", "https://openalex.org/W2053180185", "https://openalex.org/W2063860467", "https://openalex.org/W2087115340", "https://openalex.org/W2508049546", 
+"https://openalex.org/W2528772606", "https://openalex.org/W2586159533", "https://openalex.org/W2586821829", "https://openalex.org/W2605275255", "https://openalex.org/W2605713023", "https://openalex.org/W2775016303", "https://openalex.org/W2794773585", "https://openalex.org/W2899910273", "https://openalex.org/W2937163414", "https://openalex.org/W2971442865", "https://openalex.org/W3010803124", "https://openalex.org/W3036217086", "https://openalex.org/W3084409113")</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2069763525", "https://openalex.org/W2355862987", "https://openalex.org/W2049757704", "https://openalex.org/W2402697569", "https://openalex.org/W1993098890", "https://openalex.org/W2070141875", "https://openalex.org/W2326185588", "https://openalex.org/W1970838757", "https://openalex.org/W1976191581", "https://openalex.org/W2003387566")</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296994273</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Obesity as a Risk Factor for Severe COVID-19 in Hospitalized Patients: Epidemiology and Potential Mechanisms</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5010615059", "https://openalex.org/A5052918887", "https://openalex.org/A5065539544", "https://openalex.org/A5067578266", "https://openalex.org/A5036757827", "https://openalex.org/A5043724609", "https://openalex.org/A5029972042", "https://openalex.org/A5026874391", "https://openalex.org/A5050969676"), au_display_name = c("Scarleth Aburto", "Mischka Cisterna", "Javiera Acuña", "Camila Ruíz", "Sharon Viscardi", "José Luis Márquez", "Ines Villano", "Pablo Letelier", 
 "Neftalí Guzmán"), au_orcid = c(NA, NA, NA, NA, "https://orcid.org/0000-0002-5018-4122", "https://orcid.org/0000-0001-9491-7773", "https://orcid.org/0000-0002-1755-358X", NA, "https://orcid.org/0000-0003-4872-9821"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile", 
@@ -552,142 +1106,142 @@
 "education", "education"), institution_lineage = c("https://openalex.org/I2802558902", "https://openalex.org/I2802558902", "https://openalex.org/I2802558902", "https://openalex.org/I2802558902", "https://openalex.org/I2802558902", "https://openalex.org/I10457146", "https://openalex.org/I197809005", "https://openalex.org/I2802558902", "https://openalex.org/I2802558902"))</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>SARS-CoV-2 infection is a global public health problem, causing significant morbidity and mortality. Evidence shows that obesity is a recognized risk factor for hospitalization, admission to critical care units, and the development of serious complications from COVID-19. This review analyzes the available epidemiological evidence that relates obesity to a higher risk of severity and mortality from COVID-19, examining the possible pathophysiological mechanisms that explain this phenomenon on a cellular and molecular level.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://openalex.org/S4210214101</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2227-9032</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/healthcare10101838</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://www.mdpi.com/2227-9032/10/10/1838/pdf?version=1664171042</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>1838</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>1838</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>https://www.mdpi.com/2227-9032/10/10/1838/pdf?version=1664171042</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4296994273</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4296994273", doi = "https://doi.org/10.3390/healthcare10101838", pmid = "https://pubmed.ncbi.nlm.nih.gov/36292285")</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/healthcare10101838</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2341244791", "https://openalex.org/W2971838962", "https://openalex.org/W3001118548", "https://openalex.org/W3008028633", "https://openalex.org/W3008461878", "https://openalex.org/W3009906937", "https://openalex.org/W3010306050", "https://openalex.org/W3012232836", "https://openalex.org/W3014003872", "https://openalex.org/W3015826289", "https://openalex.org/W3016182787", "https://openalex.org/W3017125154", "https://openalex.org/W3020720058", "https://openalex.org/W3020836473", 
 "https://openalex.org/W3023787531", "https://openalex.org/W3023831293", "https://openalex.org/W3025200871", "https://openalex.org/W3028901054", "https://openalex.org/W3029548865", "https://openalex.org/W3034107850", "https://openalex.org/W3037641560", "https://openalex.org/W3039288176", "https://openalex.org/W3041289301", "https://openalex.org/W3042983343", "https://openalex.org/W3043231260", "https://openalex.org/W3043608155", "https://openalex.org/W3046680245", "https://openalex.org/W3048729071", 
@@ -696,538 +1250,1232 @@
 "https://openalex.org/W4380577218")</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3009669391", "https://openalex.org/W4206669628", "https://openalex.org/W4205317059", "https://openalex.org/W3007868867", "https://openalex.org/W3113664224", "https://openalex.org/W3005417802", "https://openalex.org/W3018906908", "https://openalex.org/W3084498529")</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>https://openalex.org/W4379512084</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Comparación del ajuste de modelos matemáticos en la mineralización de paracetamol comercial en un reactor fotocatalítico solar tipo CPC a escala piloto</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5092096551", "https://openalex.org/A5001118309", "https://openalex.org/A5043724609"), au_display_name = c("Moisés Altamar Licona", "Roberto González Castilla", "José Luis Márquez"), au_orcid = c(NA, NA, "https://orcid.org/0000-0001-9491-7773"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Universidad de Cartagena", "Universidad de Cartagena", ""), institution_id = c("https://openalex.org/I153390918", "https://openalex.org/I153390918", 
 NA), institution_display_name = c("University of Cartagena", "University of Cartagena", NA), institution_ror = c("https://ror.org/0409zd934", "https://ror.org/0409zd934", NA), institution_country_code = c("CO", "CO", NA), institution_type = c("education", "education", NA), institution_lineage = c("https://openalex.org/I153390918", "https://openalex.org/I153390918", NA))</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Se plantea este estudio para determinar un modelo matemático que describa la cinética de degradación del paracetamol para su aplicación en reactores fotocatalíticos a gran escala, teniendo en cuenta, aspectos de diseño, estudio de emisión, y de cinética de reacción. A partir de un análisis de literatura de los modelos Generalizado, Zalazar, Ballari y Langmuir-Hinshelwood modificado, para elegir los más adecuados en función de su desempeño con otras sustancias, su error calculado, y parámetros ajustables; se estableció que los modelos adecuados para simular fueron L-H modificado y Generalizado. El valor de la tasa volumétrica global de absorción de fotones (OVRPA) para dar inicio a la simulación fue estimada con gráficos de la tasa volumétrica de absorción de fotones (VRPA) [3]. Se usó el módulo de simulación y evaluación de reactores fotocatalíticos computacional Photoreac V1.0 [2], con base a datos experimentales [1] para analizar la viabilidad de los modelos usando diferentes concentraciones (41,64; 87,6; 149,8 ppm). Se emplearon dos criterios de selección: análisis de dispersión de parámetros, y de residuales en una formula ponderada a: 70% para dispersión de parámetros y un 30% para análisis de residuales; resultando el modelo L-H modificado como el mejor.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Revista Ing-Nova</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://openalex.org/S4387290051</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Universidad de Cartagena</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2805-9182</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://doi.org/10.32997/rin-2022-3999</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://revistas.unicartagena.edu.co/index.php/ing-nova/article/download/3999/3226</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>https://revistas.unicartagena.edu.co/index.php/ing-nova/article/download/3999/3226</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4379512084</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4379512084", doi = "https://doi.org/10.32997/rin-2022-3999")</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>https://doi.org/10.32997/rin-2022-3999</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W1649438599", "https://openalex.org/W1977358819", "https://openalex.org/W1977729342", "https://openalex.org/W1986982916", "https://openalex.org/W2004829744", "https://openalex.org/W2038109927", "https://openalex.org/W2586088456", "https://openalex.org/W2801171776", "https://openalex.org/W3046949404", "https://openalex.org/W4214946671")</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2748952813", "https://openalex.org/W2935759653", "https://openalex.org/W3105167352", "https://openalex.org/W54078636", "https://openalex.org/W2954470139", "https://openalex.org/W1501425562", "https://openalex.org/W2902782467", "https://openalex.org/W3084825885", "https://openalex.org/W2298861036", "https://openalex.org/W3148032049")</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4309411073</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Effect of coccidioidomycosis prophylaxis in selecting &lt;scp&gt;non‐&lt;/scp&gt;&lt;i&gt;Candida albicans&lt;/i&gt; species amongst solid organ transplant recipients in Arizona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5045990380", "https://openalex.org/A5040082438", "https://openalex.org/A5011596771", "https://openalex.org/A5076993071"), au_display_name = c("Mohanad Al-Obaidi", "J.A. Marquez", "Abaseen Khan Afghan", "Tirdad T. Zangeneh"), au_orcid = c("https://orcid.org/0000-0002-5189-6594", "https://orcid.org/0000-0002-8173-2566", NA, "https://orcid.org/0000-0002-9035-2952"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Division of Infectious Diseases Banner University Medical Center – Tucson, Univeristy of Arizona  Tucson Arizona USA", 
+"Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.", "Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.", "Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA."), institution_id = c("https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665"
+), institution_display_name = c("Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson"), institution_ror = c("https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I4210124665", 
+"https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665"))</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Abstract Background Invasive candidiasis carries an increased risk of morbidity and mortality. The rates of non‐albicans Candida species (NAC) infections are on the rise secondary to frequent azole antifungal use. NAC incidence and risk amongst solid organ transplant (SOT) recipients in Arizona receiving prolonged azole course for coccidioidomycosis prophylaxis have not been well elucidated. Methods We retrospectively evaluated SOT recipients hospitalised between 2017 and 2021 with a positive Candida spp. culture. Results There were 66 SOT recipients with 74 hospitalisations and 79 Candida spp. isolates. The median age was 59 (IQR 45–66), 68% were male, 58% were non‐Hispanic White, and the most common SOT 38/74 (51%) was a liver transplant. Median time from transplant to the identification of any NAC (infection or colonisation) was significantly shorter, 8 months (IQR 3–78) vs 128 months (IQR 10–282) for Candida albicans isolates, p = .03. Prior use of azoles was significantly higher in NAC‐associated post‐transplant colonisation and invasive disease hospitalisations (83%) than in those with C. albicans (17%), p &amp;lt; .001. There were 59 hospitalisations with invasive disease, with the majority having NAC isolates of 49 (83%). Conclusion The universal azole prophylaxis has reduced the incidence of coccidioidomycosis complications amongst SOT recipients in Arizona; however, there is an increased risk of developing NAC colonisation and infections, which can complicate the care of the SOT recipients with invasive candidiasis. Future studies are needed to investigate methods of reducing the risk of NAC infections whilst preventing coccidioidomycosis amongst SOT recipients.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mycoses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S80731565</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Wiley-Blackwell</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0933-7407</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/myc.13547</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4309411073</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4309411073", doi = "https://doi.org/10.1111/myc.13547", pmid = "https://pubmed.ncbi.nlm.nih.gov/36401812")</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/myc.13547</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1987762500", "https://openalex.org/W1995592215", "https://openalex.org/W2006808035", "https://openalex.org/W2077998784", "https://openalex.org/W2096879424", "https://openalex.org/W2101234999", "https://openalex.org/W2117166221", "https://openalex.org/W2120252347", "https://openalex.org/W2130836780", "https://openalex.org/W2132545080", "https://openalex.org/W2146332620", "https://openalex.org/W2154371486", "https://openalex.org/W2260819425", "https://openalex.org/W2467443345", 
+"https://openalex.org/W2522719223", "https://openalex.org/W2561436932", "https://openalex.org/W2903926077", "https://openalex.org/W2933443562", "https://openalex.org/W2992250822", "https://openalex.org/W3009561387", "https://openalex.org/W3197817639", "https://openalex.org/W3210445982")</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W4322732097", "https://openalex.org/W2123311799", "https://openalex.org/W288055997", "https://openalex.org/W4248977302", "https://openalex.org/W3081811132", "https://openalex.org/W2901037595", "https://openalex.org/W2077609473", "https://openalex.org/W3082942828", "https://openalex.org/W4281626805", "https://openalex.org/W4229548616")</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>https://openalex.org/W4225301516</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Can't Find It? Endobronchial Ultrasound (EBUS) Can!: Hilar Lymph Node Evidence of Cardiac Sarcoidosis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5019740270", "https://openalex.org/A5038186143", "https://openalex.org/A5062719384"), au_display_name = c("Francisco Márquez", "Dian Yu", "Raed Alalawi"), au_orcid = c(NA, "https://orcid.org/0000-0002-5986-9099", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Pulmonary and Critical Care, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States", "Pulmonary and Critical Care Medicine, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States", 
 "Pulmonary and Critical Care, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States"), institution_id = c("https://openalex.org/I4210103827", "https://openalex.org/I4210103827", "https://openalex.org/I4210103827"), institution_display_name = c("Banner - University Medical Center Phoenix", "Banner - University Medical Center Phoenix", "Banner - University Medical Center Phoenix"), institution_ror = c("https://ror.org/01cjjjf51", "https://ror.org/01cjjjf51", 
 "https://ror.org/01cjjjf51"), institution_country_code = c("US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I2802412784, https://openalex.org/I4210103827", "https://openalex.org/I2802412784, https://openalex.org/I4210103827", "https://openalex.org/I2802412784, https://openalex.org/I4210103827"))</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4155</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4225301516</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4225301516", doi = "https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4155")</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4155</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2415972633", "https://openalex.org/W2162038647", "https://openalex.org/W4249311693", "https://openalex.org/W3032061382", "https://openalex.org/W2144303056", "https://openalex.org/W2123888262", "https://openalex.org/W2214529883", "https://openalex.org/W3002549440", "https://openalex.org/W2911500414", "https://openalex.org/W2385520015")</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>https://openalex.org/W4225314878</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bronchoscopic Pneumonectomy with Endobronchial Valves: A Minimally Invasive Alternative to Traditional Surgical Pneumonectomy</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5038186143", "https://openalex.org/A5019740270", "https://openalex.org/A5062719384"), au_display_name = c("Dian Yu", "Francisco Márquez", "Raed Alalawi"), au_orcid = c("https://orcid.org/0000-0002-5986-9099", NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("University of Arizona, Phoenix, AZ, United States", "Pulmonary and Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ,", "BUMCP Lung Institute, Phoenix, AZ, United States"
 ), institution_id = c("https://openalex.org/I176279760", "https://openalex.org/I4210103827", "https://openalex.org/I4210101049"), institution_display_name = c("University of Phoenix", "Banner - University Medical Center Phoenix", "Lung Institute"), institution_ror = c("https://ror.org/01j0n2h15", "https://ror.org/01cjjjf51", "https://ror.org/016978714"), institution_country_code = c("US", "US", "US"), institution_type = c("education", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I176279760", 
 "https://openalex.org/I2802412784, https://openalex.org/I4210103827", "https://openalex.org/I4210101049"))</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4144</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4225314878</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4225314878", doi = "https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4144")</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4144</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2023237433", "https://openalex.org/W2047967234", "https://openalex.org/W2002120878", "https://openalex.org/W2364998975", "https://openalex.org/W2439875401", "https://openalex.org/W2003938723", "https://openalex.org/W2118496982", "https://openalex.org/W2525756941", "https://openalex.org/W4238867864", "https://openalex.org/W2519357708")</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4312807485</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OXYGEN, TEMPERATURE, AND THE CAMBRIAN RADIATION OF ANIMALS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5015405639", "https://openalex.org/A5027418132", "https://openalex.org/A5017871082", "https://openalex.org/A5012795191", "https://openalex.org/A5005639881", "https://openalex.org/A5040082438", "https://openalex.org/A5089314789", "https://openalex.org/A5020551911"), au_display_name = c("Erik A. Sperling", "Pedro M. Monarrez", "Kyra N. Anderson", "Thomas H. Boag", "Murray I. Duncan", "J.A. Marquez", "Christopher P. Noll", "Richard Stockey"), au_orcid = c("https://orcid.org/0000-0001-9590-371X", 
+"https://orcid.org/0000-0002-4221-0693", NA, NA, "https://orcid.org/0000-0002-6110-292X", "https://orcid.org/0000-0002-8173-2566", NA, "https://orcid.org/0000-0001-5541-7987"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, 
+NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Abstracts with programs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4220651000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Geological Society of America</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0016-7592</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2022am-380574</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4312807485</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4312807485", doi = "https://doi.org/10.1130/abs/2022am-380574")</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2022am-380574</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2947114855", "https://openalex.org/W2245202144", "https://openalex.org/W2084199528", "https://openalex.org/W4235893465", "https://openalex.org/W2794934273", "https://openalex.org/W2955687649", "https://openalex.org/W1966727669", "https://openalex.org/W2899084033", "https://openalex.org/W1986302853", "https://openalex.org/W2324615561")</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4312848476</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COMPARING THE HYPOXIA TOLERANCE AND TEMPERATURE SENSITIVITIES OF PALEOZOIC AND MODERN MARINE FAUNA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>list(au_id = "https://openalex.org/A5040082438", au_display_name = "J.A. Marquez", au_orcid = "https://orcid.org/0000-0002-8173-2566", author_position = "first", au_affiliation_raw = "", institution_id = NA, institution_display_name = NA, institution_ror = NA, institution_country_code = NA, institution_type = NA, institution_lineage = NA)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Abstracts with programs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4220651000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Geological Society of America</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0016-7592</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2022am-383857</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4312848476</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4312848476", doi = "https://doi.org/10.1130/abs/2022am-383857")</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2022am-383857</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2337712059", "https://openalex.org/W2095757660", "https://openalex.org/W2319747825", "https://openalex.org/W2776238981", "https://openalex.org/W3142164383", "https://openalex.org/W2505144080", "https://openalex.org/W2027700889", "https://openalex.org/W2043363259", "https://openalex.org/W2379720926", "https://openalex.org/W2273013737")</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4320056784</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Happy Schools and Communities: Supporting Adolescents’ Wellbeing in the United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>list(au_id = "https://openalex.org/A5040082438", au_display_name = "J.A. Marquez", au_orcid = "https://orcid.org/0000-0002-8173-2566", author_position = "first", au_affiliation_raw = "", institution_id = NA, institution_display_name = NA, institution_ror = NA, institution_country_code = NA, institution_type = NA, institution_lineage = NA)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Initiatives to assess and promote adolescents’ wellbeing are proliferating worldwide. The United Arab Emirates (UAE) has been implementing pioneering wellbeing agendas at the national and emirate levels for some years. However, these have barely been driven by local evidence, which remains almost nonexistent in the area of adolescent wellbeing. In the absence of local evidence, schools and other decision-makers are forced to rely on evidence from studies conducted in altogether different sociocultural contexts. Yet, the unique characteristics of the nation demand evidence-based policymaking approaches that are sensitive to local issues and the diverse socio-demographic profile of its population. The following policy paper supports this endeavor by analyzing data from the Programme for International Student Assessment (PISA) 2018 to provide the first detailed overview of levels and drivers of adolescents’ wellbeing in the UAE. This baseline assessment provides valuable insights that schools, education authorities, and other stakeholders can use to inform decisions on how to support adolescents’ wellbeing. This policy paper makes specific recommendations and calls for a change in the nation’s wellbeing policy approach to facilitate systematic data collection and analysis at the national, emirate, and school levels and ensure that the emerging evidence is used to drive positive change.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.18502/aqf.0195</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4320056784</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4320056784", doi = "https://doi.org/10.18502/aqf.0195")</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.18502/aqf.0195</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W2617687674", "https://openalex.org/W3101786744", "https://openalex.org/W2985504029", "https://openalex.org/W4312471096", "https://openalex.org/W4312467502", "https://openalex.org/W2934059998", "https://openalex.org/W2567507185", "https://openalex.org/W2594831556")</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Jose Marquez_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Competence Centre Photovoltaics (PVcomB), Helmholtz-Zentrum Berlin, Schwarzschildstraße 3, 12489 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany; Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany; Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Novel Materials and Interfaces for Photovoltaic Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Competence Centre Photovoltaics (PVcomB), Helmholtz-Zentrum Berlin, Schwarzschildstraße 3, 12489 Berlin, Germany; Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany; Department of Structure and Dynamics of Energy Materials, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, 14109 Berlin, Germany; Department Solution-Processing of Hybrid Materials and Devices, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Department Perovskite Tandem Solar Cells, Helmholtz-Zentrum Berlin für Materialien und Energie GmbH, Kekuléstraße 5, 12489 Berlin, Germany; Faculty of Electrical Engineering and Computer Science, Technical University Berlin, 10587 Berlin, Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297347256</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Slot-Die Coated Triple-Halide Perovskites for Efficient and Scalable Perovskite/Silicon Tandem Solar Cells</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ACS Energy Letters</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Chemical Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acsenergylett.2c01506</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36277135</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acsenergylett.2c01506</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229370660</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Association of masking policies with mask adherence and distancing during the SARS-COV-2 pandemic</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Infection Control</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ajic.2022.04.010</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35545151</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ajic.2022.04.010</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany; Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany; Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany; Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany; Zentrum für Sonnenenergie‐ und Wasserstoff‐Forschung Baden‐Württemberg (ZSW)  Stuttgart Germany; Zentrum für Sonnenenergie‐ und Wasserstoff‐Forschung Baden‐Württemberg (ZSW)  Stuttgart Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany; Empa ‐ Swiss Federal Laboratories for Materials Science and Technology  Dübendorf Switzerland; The Angström Laboratory Solar Cell Technology University of Uppsala  Uppsala Sweden; Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany; Helmholtz Zentrum Berlin fur Materialien und Energie GmbH, Competence Centre Photovoltaics Berlin (PVcomB), Berlin, Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Berlin Germany</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280494983</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Effects of material properties of band‐gap‐graded Cu(In,Ga)Se&lt;sub&gt;2&lt;/sub&gt; thin films on the onset of the quantum efficiency spectra of corresponding solar cells</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Progress in Photovoltaics: Research and Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pip.3572</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pip.3572</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Biotechnology of Functional Foods Laboratory, Camino Sanquilco, Parcela 18, Padre Las Casas 4850000, Chile; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Escuela de Kinesiología, Facultad de Ciencias Médicas, Universidad de Santiago de Chile, Santiago 9160000, Chile; Dipartimento di Medicina Sperimentale, Università degli Studi della Campania Luigi Vanvitelli, 81100 Caserta, Italy; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile; Laboratorio de Investigación en Salud de Precisión, Departamento de Procesos Diagnósticos y Evaluación, Facultad de Ciencias de la Salud, Universidad Católica de Temuco, Temuco 4780000, Chile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296994273</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Obesity as a Risk Factor for Severe COVID-19 in Hospitalized Patients: Epidemiology and Potential Mechanisms</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/healthcare10101838</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36292285</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/healthcare10101838</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">Universidad de Cartagena; Universidad de Cartagena; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379512084</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Comparación del ajuste de modelos matemáticos en la mineralización de paracetamol comercial en un reactor fotocatalítico solar tipo CPC a escala piloto</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Revista Ing-Nova</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Universidad de Cartagena</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.32997/rin-2022-3999</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.32997/rin-2022-3999</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases Banner University Medical Center – Tucson, Univeristy of Arizona  Tucson Arizona USA; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309411073</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Effect of coccidioidomycosis prophylaxis in selecting &lt;scp&gt;non‐&lt;/scp&gt;&lt;i&gt;Candida albicans&lt;/i&gt; species amongst solid organ transplant recipients in Arizona</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-11-27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Mycoses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/myc.13547</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36401812</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/myc.13547</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Pulmonary and Critical Care, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary and Critical Care, University of Arizona, Banner University Medical Center - Phoenix, Phoenix, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225301516</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Can't Find It? Endobronchial Ultrasound (EBUS) Can!: Hilar Lymph Node Evidence of Cardiac Sarcoidosis</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,14 +999,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4155</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4155</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona, Phoenix, AZ, United States; Pulmonary and Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ,; BUMCP Lung Institute, Phoenix, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225314878</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Bronchoscopic Pneumonectomy with Endobronchial Valves: A Minimally Invasive Alternative to Traditional Surgical Pneumonectomy</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,14 +1086,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4144</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4144</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312807485</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>OXYGEN, TEMPERATURE, AND THE CAMBRIAN RADIATION OF ANIMALS</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Abstracts with programs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Geological Society of America</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1130/abs/2022am-380574</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1130/abs/2022am-380574</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1183,41 +1233,36 @@
           <t>J.A. Marquez</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://openalex.org/W4312848476</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>COMPARING THE HYPOXIA TOLERANCE AND TEMPERATURE SENSITIVITIES OF PALEOZOIC AND MODERN MARINE FAUNA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Abstracts with programs</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Geological Society of America</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1130/abs/2022am-383857</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1270,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1130/abs/2022am-383857</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1265,26 +1315,21 @@
           <t>J.A. Marquez</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://openalex.org/W4320056784</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Happy Schools and Communities: Supporting Adolescents’ Wellbeing in the United Arab Emirates</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,14 +1337,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.18502/aqf.0195</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1307,35 +1352,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.18502/aqf.0195</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
